--- a/[Work]/BoomrangAI/AI难度表格式.xlsx
+++ b/[Work]/BoomrangAI/AI难度表格式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\[Work]\BoomrangAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BEE0F5-032C-495C-8452-B29AFFDF8C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E6A16-BE90-4116-A97F-21FC5ED949B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>唯一id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最佳投掷目标判定角度范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投掷后目标位置预测系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bestThrowObjAngle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投掷转向精度类型，1：目标方向绝对值范围；2：自己与目标方向夹角相对值范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +188,110 @@
   </si>
   <si>
     <t>gettingBearingsDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.3,0.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.25,0.25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.2,0.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.6,0.85]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.41,0.63]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.1,0.35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踢概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kickProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestThrowObjMinDot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳投掷目标判定角度范围（点积值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-30,30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.5,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.9,1.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.8,1.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.6,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.9,1.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.1,1.5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,163 +620,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.25" customWidth="1"/>
-    <col min="19" max="19" width="23.125" customWidth="1"/>
-    <col min="20" max="20" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="21" max="21" width="23.125" customWidth="1"/>
+    <col min="22" max="22" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
+      <c r="V2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -693,67 +798,330 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
       <c r="P3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.85</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>0.47</v>
+      </c>
+      <c r="M5">
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5">
+        <v>33</v>
+      </c>
+      <c r="Q5">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5">
+        <v>66</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>90</v>
+      </c>
+      <c r="K6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6">
+        <v>66</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="K7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7">
+        <v>66</v>
+      </c>
+      <c r="V7">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
